--- a/SITSEC1/datasheet.xlsx
+++ b/SITSEC1/datasheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bern_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bern_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2816D214-EC20-498B-8209-CCE6E0DB2A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370E27BF-0E5B-43AC-95A0-8CF8C4214C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{347C2757-ECF4-47D8-9655-67DBFECE101B}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -326,7 +326,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -335,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -835,10 +835,40 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -901,6 +931,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Anzahl Anfragen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1058,7 +1143,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>nach Aufruf der Webseite (in MB)</a:t>
+              <a:t>nach Aufruf der Webseite</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1545,6 +1630,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Datenmengen in MB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2491,6 +2631,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Anzahl</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4243,13 +4438,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4281,14 +4476,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>185739</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4654,7 +4849,7 @@
   <dimension ref="B2:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4666,37 +4861,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4704,28 +4899,28 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -5385,7 +5580,7 @@
       <c r="M28" t="s">
         <v>11</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28" s="5">
         <f>(Q3+Q7+Q11+Q15+Q19+Q23)/6</f>
         <v>7.4224103782927306</v>
       </c>
@@ -5394,7 +5589,7 @@
       <c r="M29" t="s">
         <v>12</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="5">
         <f>(Q4+Q8+Q12+Q20+Q24)/5</f>
         <v>8.39</v>
       </c>
@@ -5403,7 +5598,7 @@
       <c r="M30" t="s">
         <v>13</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="Q30" s="5">
         <f>(Q5+Q13+Q21+Q25)/4</f>
         <v>3.1749999999999998</v>
       </c>
@@ -5412,13 +5607,18 @@
       <c r="M31" t="s">
         <v>14</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="Q31" s="5">
         <f>(Q6+Q10+Q14+Q22+Q26)/5</f>
         <v>40.78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="L11:L14"/>
     <mergeCell ref="L15:L18"/>
     <mergeCell ref="L19:L22"/>
     <mergeCell ref="L23:L26"/>
@@ -5428,11 +5628,6 @@
     <mergeCell ref="R15:R18"/>
     <mergeCell ref="R19:R22"/>
     <mergeCell ref="R23:R26"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="L11:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
